--- a/Robotica/DENAVIT/tabela Denavi-Hartenberg.xlsx
+++ b/Robotica/DENAVIT/tabela Denavi-Hartenberg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\OneDrive\Documents\GitHub\Codigos-matilab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Documentos\Robotica\Codigos-matilab\Robotica\DENAVIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E7097-A02E-4AF0-ACC4-190E496FA1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7942285D-8E08-4309-8588-0286D3BCC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>θᵢ</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>var - 90</t>
   </si>
   <si>
     <t>0 - 1</t>
@@ -379,10 +373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,29 +764,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68B00B-7A55-48F7-B4AE-4E1492EA994E}">
   <dimension ref="F2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
     <col min="7" max="10" width="20.42578125" style="1" customWidth="1"/>
     <col min="12" max="14" width="17.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -818,20 +812,8 @@
       </c>
     </row>
     <row r="4" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>330</v>
-      </c>
-      <c r="I4" s="1">
-        <v>88</v>
-      </c>
-      <c r="J4" s="1">
-        <v>90</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>9</v>
@@ -844,20 +826,8 @@
       </c>
     </row>
     <row r="5" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-310</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>12</v>
@@ -870,20 +840,8 @@
       </c>
     </row>
     <row r="6" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-40</v>
-      </c>
-      <c r="J6" s="1">
-        <v>90</v>
+      <c r="F6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>15</v>
@@ -896,20 +854,8 @@
       </c>
     </row>
     <row r="7" spans="6:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1">
-        <v>305</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>90</v>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>18</v>
@@ -922,37 +868,13 @@
       </c>
     </row>
     <row r="8" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-90</v>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1">
-        <v>86.5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Robotica/DENAVIT/tabela Denavi-Hartenberg.xlsx
+++ b/Robotica/DENAVIT/tabela Denavi-Hartenberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Documentos\Robotica\Codigos-matilab\Robotica\DENAVIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\Codigos-matilab\Robotica\DENAVIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7942285D-8E08-4309-8588-0286D3BCC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE41E0-16ED-4A78-945C-1F9C75BF1F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>θᵢ</t>
   </si>
@@ -164,12 +164,30 @@
   <si>
     <t>4-5</t>
   </si>
+  <si>
+    <t>θ1</t>
+  </si>
+  <si>
+    <t>θ3</t>
+  </si>
+  <si>
+    <t>θ4</t>
+  </si>
+  <si>
+    <t>θ5</t>
+  </si>
+  <si>
+    <t>θ6</t>
+  </si>
+  <si>
+    <t>θ2 - 90</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +199,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -341,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,7 +400,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,6 +464,50 @@
         <a:xfrm>
           <a:off x="13401675" y="238125"/>
           <a:ext cx="4533900" cy="2431967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>410670</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB626659-0935-B1F9-FAFB-68E0009ED8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="3228975"/>
+          <a:ext cx="7849695" cy="2924583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68B00B-7A55-48F7-B4AE-4E1492EA994E}">
   <dimension ref="F2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,29 +850,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -812,8 +887,20 @@
       </c>
     </row>
     <row r="4" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>21</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="14">
+        <v>330</v>
+      </c>
+      <c r="I4" s="14">
+        <v>88</v>
+      </c>
+      <c r="J4" s="14">
+        <v>-90</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>9</v>
@@ -826,8 +913,20 @@
       </c>
     </row>
     <row r="5" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>310</v>
+      </c>
+      <c r="J5" s="14">
+        <v>180</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>12</v>
@@ -840,8 +939,20 @@
       </c>
     </row>
     <row r="6" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>40</v>
+      </c>
+      <c r="J6" s="14">
+        <v>-90</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>15</v>
@@ -854,8 +965,20 @@
       </c>
     </row>
     <row r="7" spans="6:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>24</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="14">
+        <v>-305</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>90</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>18</v>
@@ -868,13 +991,37 @@
       </c>
     </row>
     <row r="8" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>-90</v>
       </c>
     </row>
     <row r="9" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>25</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="14">
+        <v>-80</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +1029,7 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Robotica/DENAVIT/tabela Denavi-Hartenberg.xlsx
+++ b/Robotica/DENAVIT/tabela Denavi-Hartenberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\Codigos-matilab\Robotica\DENAVIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Documentos\Robotica\Codigos-matilab\Robotica\DENAVIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE41E0-16ED-4A78-945C-1F9C75BF1F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918422E9-FD84-4C64-B88C-9CCB277B53D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>θᵢ</t>
   </si>
@@ -168,9 +168,6 @@
     <t>θ1</t>
   </si>
   <si>
-    <t>θ3</t>
-  </si>
-  <si>
     <t>θ4</t>
   </si>
   <si>
@@ -180,13 +177,19 @@
     <t>θ6</t>
   </si>
   <si>
-    <t>θ2 - 90</t>
+    <t>θ2 + 90</t>
+  </si>
+  <si>
+    <t>θ3 + 180</t>
+  </si>
+  <si>
+    <t>86.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +417,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{08CD7271-958A-4DC3-A47D-4B49328184FD}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -838,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68B00B-7A55-48F7-B4AE-4E1492EA994E}">
   <dimension ref="F2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,29 +856,29 @@
   <sheetData>
     <row r="2" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="6:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -890,16 +895,16 @@
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>330</v>
       </c>
-      <c r="I4" s="14">
-        <v>88</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="13">
+        <v>-88</v>
+      </c>
+      <c r="J4" s="13">
         <v>-90</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -916,17 +921,17 @@
       <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>310</v>
       </c>
-      <c r="J5" s="14">
-        <v>180</v>
+      <c r="J5" s="13">
+        <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>12</v>
@@ -942,16 +947,16 @@
       <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
-        <v>40</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="13">
+        <v>-40</v>
+      </c>
+      <c r="J6" s="13">
         <v>-90</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -968,16 +973,16 @@
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="14">
-        <v>-305</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13">
+        <v>305</v>
+      </c>
+      <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>90</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -994,16 +999,16 @@
       <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>-90</v>
       </c>
     </row>
@@ -1011,16 +1016,16 @@
       <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="14">
-        <v>-80</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="G9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13">
         <v>0</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>0</v>
       </c>
     </row>
